--- a/ovary_exp_ddct.xlsx
+++ b/ovary_exp_ddct.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,33 +993,33 @@
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>15.23528642508054</v>
+        <v>14.89943443887979</v>
       </c>
       <c r="F12" t="n">
-        <v>18.38503603795516</v>
+        <v>18.1750287128342</v>
       </c>
       <c r="G12" t="n">
-        <v>21.37006073287996</v>
+        <v>20.14183710066337</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>6.13477430779942</v>
+        <v>5.242402661783577</v>
       </c>
       <c r="K12" t="n">
-        <v>3.149749612874624</v>
+        <v>3.275594273954409</v>
       </c>
       <c r="L12" t="n">
-        <v>2.108117823785827</v>
+        <v>1.215746177769985</v>
       </c>
       <c r="M12" t="n">
-        <v>2.888274900933519</v>
+        <v>3.014119562013304</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2319494252144796</v>
+        <v>0.4305503368806072</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1350649366103795</v>
+        <v>0.1237826001983663</v>
       </c>
     </row>
     <row r="13">
@@ -1028,45 +1028,45 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B1-1</t>
+          <t>A8-4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>15.70944286706461</v>
+        <v>15.57113841128128</v>
       </c>
       <c r="F13" t="n">
-        <v>20.68237712716458</v>
+        <v>18.59504336307612</v>
       </c>
       <c r="G13" t="n">
-        <v>23.17475376714151</v>
+        <v>22.59828436509654</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>7.465310900076894</v>
+        <v>7.027145953815262</v>
       </c>
       <c r="K13" t="n">
-        <v>4.972934260099965</v>
+        <v>3.023904951794835</v>
       </c>
       <c r="L13" t="n">
-        <v>3.438654416063301</v>
+        <v>3.00048946980167</v>
       </c>
       <c r="M13" t="n">
-        <v>4.71145954815886</v>
+        <v>2.76243023985373</v>
       </c>
       <c r="N13" t="n">
-        <v>0.09222780571947749</v>
+        <v>0.1249575978667658</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03816887438697873</v>
+        <v>0.147375617189585</v>
       </c>
     </row>
     <row r="14">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1087,33 +1087,33 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>14.96941956261274</v>
+        <v>15.70944286706461</v>
       </c>
       <c r="F14" t="n">
-        <v>19.86690218435758</v>
+        <v>20.68237712716458</v>
       </c>
       <c r="G14" t="n">
-        <v>22.22848189419038</v>
+        <v>23.17475376714151</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>7.259062331577642</v>
+        <v>7.465310900076894</v>
       </c>
       <c r="K14" t="n">
-        <v>4.897482621744846</v>
+        <v>4.972934260099965</v>
       </c>
       <c r="L14" t="n">
-        <v>3.232405847564049</v>
+        <v>3.438654416063301</v>
       </c>
       <c r="M14" t="n">
-        <v>4.636007909803741</v>
+        <v>4.71145954815886</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1064017771512751</v>
+        <v>0.09222780571947749</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04021819347495353</v>
+        <v>0.03816887438697873</v>
       </c>
     </row>
     <row r="15">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1134,33 +1134,33 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>15.13390201183846</v>
+        <v>14.96941956261274</v>
       </c>
       <c r="F15" t="n">
-        <v>17.837980179444</v>
+        <v>19.86690218435758</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03696592487368</v>
+        <v>22.22848189419038</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>4.903063913035222</v>
+        <v>7.259062331577642</v>
       </c>
       <c r="K15" t="n">
-        <v>2.704078167605537</v>
+        <v>4.897482621744846</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8764074290216293</v>
+        <v>3.232405847564049</v>
       </c>
       <c r="M15" t="n">
-        <v>2.442603455664432</v>
+        <v>4.636007909803741</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5447222003242381</v>
+        <v>0.1064017771512751</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1839513978250948</v>
+        <v>0.04021819347495353</v>
       </c>
     </row>
     <row r="16">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>16.87669624032954</v>
+        <v>15.13390201183846</v>
       </c>
       <c r="F16" t="n">
-        <v>20.66445423203388</v>
+        <v>17.837980179444</v>
       </c>
       <c r="G16" t="n">
-        <v>24.63746984477569</v>
+        <v>20.03696592487368</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>7.760773604446143</v>
+        <v>4.903063913035222</v>
       </c>
       <c r="K16" t="n">
-        <v>3.787757991704339</v>
+        <v>2.704078167605537</v>
       </c>
       <c r="L16" t="n">
-        <v>3.734117120432551</v>
+        <v>0.8764074290216293</v>
       </c>
       <c r="M16" t="n">
-        <v>3.526283279763234</v>
+        <v>2.442603455664432</v>
       </c>
       <c r="N16" t="n">
-        <v>0.07514822714784629</v>
+        <v>0.5447222003242381</v>
       </c>
       <c r="O16" t="n">
-        <v>0.08679265217823168</v>
+        <v>0.1839513978250948</v>
       </c>
     </row>
     <row r="17">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B4-1</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1225,36 +1225,36 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>14.92695377493017</v>
+        <v>16.87669624032954</v>
       </c>
       <c r="F17" t="n">
-        <v>18.33051719519619</v>
+        <v>20.66445423203388</v>
       </c>
       <c r="G17" t="n">
-        <v>23.31941167091893</v>
+        <v>24.63746984477569</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>8.392457895988755</v>
+        <v>7.760773604446143</v>
       </c>
       <c r="K17" t="n">
-        <v>3.403563420266014</v>
+        <v>3.787757991704339</v>
       </c>
       <c r="L17" t="n">
-        <v>4.365801411975163</v>
+        <v>3.734117120432551</v>
       </c>
       <c r="M17" t="n">
-        <v>3.142088708324909</v>
+        <v>3.526283279763234</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04850235431714964</v>
+        <v>0.07514822714784629</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1132757769767645</v>
+        <v>0.08679265217823168</v>
       </c>
     </row>
     <row r="18">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B4-2</t>
+          <t>B4-1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1275,33 +1275,33 @@
         <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>15.60060402723314</v>
+        <v>14.92695377493017</v>
       </c>
       <c r="F18" t="n">
-        <v>18.28262635561443</v>
+        <v>18.33051719519619</v>
       </c>
       <c r="G18" t="n">
-        <v>23.10385276243566</v>
+        <v>23.31941167091893</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>7.503248735202519</v>
+        <v>8.392457895988755</v>
       </c>
       <c r="K18" t="n">
-        <v>2.682022328381294</v>
+        <v>3.403563420266014</v>
       </c>
       <c r="L18" t="n">
-        <v>3.476592251188926</v>
+        <v>4.365801411975163</v>
       </c>
       <c r="M18" t="n">
-        <v>2.420547616440189</v>
+        <v>3.142088708324909</v>
       </c>
       <c r="N18" t="n">
-        <v>0.08983414726592184</v>
+        <v>0.04850235431714964</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1867852429048699</v>
+        <v>0.1132757769767645</v>
       </c>
     </row>
     <row r="19">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B4-3</t>
+          <t>B4-2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1322,33 +1322,33 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>15.04313971978672</v>
+        <v>15.60060402723314</v>
       </c>
       <c r="F19" t="n">
-        <v>17.55895984510537</v>
+        <v>18.28262635561443</v>
       </c>
       <c r="G19" t="n">
-        <v>22.62353199298857</v>
+        <v>23.10385276243566</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>7.580392273201847</v>
+        <v>7.503248735202519</v>
       </c>
       <c r="K19" t="n">
-        <v>2.515820125318642</v>
+        <v>2.682022328381294</v>
       </c>
       <c r="L19" t="n">
-        <v>3.553735789188254</v>
+        <v>3.476592251188926</v>
       </c>
       <c r="M19" t="n">
-        <v>2.254345413377537</v>
+        <v>2.420547616440189</v>
       </c>
       <c r="N19" t="n">
-        <v>0.08515672108173601</v>
+        <v>0.08983414726592184</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2095918591357187</v>
+        <v>0.1867852429048699</v>
       </c>
     </row>
     <row r="20">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B4-4</t>
+          <t>B4-3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1369,33 +1369,33 @@
         <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>15.39889735972379</v>
+        <v>15.04313971978672</v>
       </c>
       <c r="F20" t="n">
-        <v>17.58394590457306</v>
+        <v>17.55895984510537</v>
       </c>
       <c r="G20" t="n">
-        <v>23.12210583931216</v>
+        <v>22.62353199298857</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>7.723208479588367</v>
+        <v>7.580392273201847</v>
       </c>
       <c r="K20" t="n">
-        <v>2.185048544849272</v>
+        <v>2.515820125318642</v>
       </c>
       <c r="L20" t="n">
-        <v>3.696551995574774</v>
+        <v>3.553735789188254</v>
       </c>
       <c r="M20" t="n">
-        <v>1.923573832908167</v>
+        <v>2.254345413377537</v>
       </c>
       <c r="N20" t="n">
-        <v>0.07713064600581745</v>
+        <v>0.08515672108173601</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2636007110552641</v>
+        <v>0.2095918591357187</v>
       </c>
     </row>
     <row r="21">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B8-1</t>
+          <t>B4-4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1413,36 +1413,36 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>14.80902723035197</v>
+        <v>15.39889735972379</v>
       </c>
       <c r="F21" t="n">
-        <v>16.19541762076719</v>
+        <v>17.58394590457306</v>
       </c>
       <c r="G21" t="n">
-        <v>19.62773875834094</v>
+        <v>23.12210583931216</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>4.818711527988963</v>
+        <v>7.723208479588367</v>
       </c>
       <c r="K21" t="n">
-        <v>1.386390390415219</v>
+        <v>2.185048544849272</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7920550439753704</v>
+        <v>3.696551995574774</v>
       </c>
       <c r="M21" t="n">
-        <v>1.124915678474114</v>
+        <v>1.923573832908167</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5775208573703229</v>
+        <v>0.07713064600581745</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4585288205576526</v>
+        <v>0.2636007110552641</v>
       </c>
     </row>
     <row r="22">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B8-2</t>
+          <t>B8-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1463,33 +1463,33 @@
         <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>14.89727127711981</v>
+        <v>14.80902723035197</v>
       </c>
       <c r="F22" t="n">
-        <v>17.37463556183376</v>
+        <v>16.19541762076719</v>
       </c>
       <c r="G22" t="n">
-        <v>19.85029238060519</v>
+        <v>19.62773875834094</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>4.953021103485375</v>
+        <v>4.818711527988963</v>
       </c>
       <c r="K22" t="n">
-        <v>2.477364284713945</v>
+        <v>1.386390390415219</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9263646194717818</v>
+        <v>0.7920550439753704</v>
       </c>
       <c r="M22" t="n">
-        <v>2.21588957277284</v>
+        <v>1.124915678474114</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5261825758167152</v>
+        <v>0.5775208573703229</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2152537724775701</v>
+        <v>0.4585288205576526</v>
       </c>
     </row>
     <row r="23">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B8-3</t>
+          <t>B8-2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1510,33 +1510,33 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>17.60059705634872</v>
+        <v>14.89727127711981</v>
       </c>
       <c r="F23" t="n">
-        <v>21.47526788842094</v>
+        <v>17.37463556183376</v>
       </c>
       <c r="G23" t="n">
-        <v>24.55584369104612</v>
+        <v>19.85029238060519</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>6.955246634697403</v>
+        <v>4.953021103485375</v>
       </c>
       <c r="K23" t="n">
-        <v>3.874670832072219</v>
+        <v>2.477364284713945</v>
       </c>
       <c r="L23" t="n">
-        <v>2.92859015068381</v>
+        <v>0.9263646194717818</v>
       </c>
       <c r="M23" t="n">
-        <v>3.613196120131114</v>
+        <v>2.21588957277284</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1313428753605349</v>
+        <v>0.5261825758167152</v>
       </c>
       <c r="O23" t="n">
-        <v>0.08171834972651164</v>
+        <v>0.2152537724775701</v>
       </c>
     </row>
     <row r="24">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B8-4</t>
+          <t>B8-3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1557,33 +1557,33 @@
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>14.66287921624305</v>
+        <v>17.60059705634872</v>
       </c>
       <c r="F24" t="n">
-        <v>16.47301327522812</v>
+        <v>21.47526788842094</v>
       </c>
       <c r="G24" t="n">
-        <v>20.19290261074956</v>
+        <v>24.55584369104612</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>5.530023394506507</v>
+        <v>6.955246634697403</v>
       </c>
       <c r="K24" t="n">
-        <v>1.810134058985064</v>
+        <v>3.874670832072219</v>
       </c>
       <c r="L24" t="n">
-        <v>1.503366910492915</v>
+        <v>2.92859015068381</v>
       </c>
       <c r="M24" t="n">
-        <v>1.548659347043959</v>
+        <v>3.613196120131114</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3527292422941067</v>
+        <v>0.1313428753605349</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3418275666832052</v>
+        <v>0.08171834972651164</v>
       </c>
     </row>
     <row r="25">
@@ -1592,45 +1592,45 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C1-1</t>
+          <t>B8-4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>15.47977002981646</v>
+        <v>14.66287921624305</v>
       </c>
       <c r="F25" t="n">
-        <v>17.174600105952</v>
+        <v>16.47301327522812</v>
       </c>
       <c r="G25" t="n">
-        <v>22.13113748712879</v>
+        <v>20.19290261074956</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>6.651367457312329</v>
+        <v>5.530023394506507</v>
       </c>
       <c r="K25" t="n">
-        <v>1.694830076135542</v>
+        <v>1.810134058985064</v>
       </c>
       <c r="L25" t="n">
-        <v>2.624710973298736</v>
+        <v>1.503366910492915</v>
       </c>
       <c r="M25" t="n">
-        <v>1.433355364194437</v>
+        <v>1.548659347043959</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1621374233719835</v>
+        <v>0.3527292422941067</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3702687337919089</v>
+        <v>0.3418275666832052</v>
       </c>
     </row>
     <row r="26">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C1-2</t>
+          <t>C1-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1651,33 +1651,33 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>16.15569905713578</v>
+        <v>15.47977002981646</v>
       </c>
       <c r="F26" t="n">
-        <v>17.55570590295049</v>
+        <v>17.174600105952</v>
       </c>
       <c r="G26" t="n">
-        <v>22.72640577034138</v>
+        <v>22.13113748712879</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>6.570706713205592</v>
+        <v>6.651367457312329</v>
       </c>
       <c r="K26" t="n">
-        <v>1.400006845814705</v>
+        <v>1.694830076135542</v>
       </c>
       <c r="L26" t="n">
-        <v>2.544050229191999</v>
+        <v>2.624710973298736</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1385321338736</v>
+        <v>1.433355364194437</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1714606913562693</v>
+        <v>0.1621374233719835</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4542214890461151</v>
+        <v>0.3702687337919089</v>
       </c>
     </row>
     <row r="27">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C1-3</t>
+          <t>C1-2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1698,33 +1698,33 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>15.55862536262769</v>
+        <v>16.15569905713578</v>
       </c>
       <c r="F27" t="n">
-        <v>17.63525661847231</v>
+        <v>17.55570590295049</v>
       </c>
       <c r="G27" t="n">
-        <v>22.60565030979359</v>
+        <v>22.72640577034138</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>7.047024947165896</v>
+        <v>6.570706713205592</v>
       </c>
       <c r="K27" t="n">
-        <v>2.076631255844619</v>
+        <v>1.400006845814705</v>
       </c>
       <c r="L27" t="n">
-        <v>3.020368463152304</v>
+        <v>2.544050229191999</v>
       </c>
       <c r="M27" t="n">
-        <v>1.815156543903514</v>
+        <v>1.1385321338736</v>
       </c>
       <c r="N27" t="n">
-        <v>0.123247606702127</v>
+        <v>0.1714606913562693</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2841734065578637</v>
+        <v>0.4542214890461151</v>
       </c>
     </row>
     <row r="28">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C1-4</t>
+          <t>C1-3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1745,33 +1745,33 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>15.56044474506893</v>
+        <v>15.55862536262769</v>
       </c>
       <c r="F28" t="n">
-        <v>17.50820810249395</v>
+        <v>17.63525661847231</v>
       </c>
       <c r="G28" t="n">
-        <v>23.20229628506703</v>
+        <v>22.60565030979359</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>7.641851539998097</v>
+        <v>7.047024947165896</v>
       </c>
       <c r="K28" t="n">
-        <v>1.947763357425014</v>
+        <v>2.076631255844619</v>
       </c>
       <c r="L28" t="n">
-        <v>3.615195055984504</v>
+        <v>3.020368463152304</v>
       </c>
       <c r="M28" t="n">
-        <v>1.686288645483909</v>
+        <v>1.815156543903514</v>
       </c>
       <c r="N28" t="n">
-        <v>0.08160520271927707</v>
+        <v>0.123247606702127</v>
       </c>
       <c r="O28" t="n">
-        <v>0.310725243025308</v>
+        <v>0.2841734065578637</v>
       </c>
     </row>
     <row r="29">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C4-1</t>
+          <t>C1-4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1789,38 +1789,36 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>15.05223796278034</v>
+        <v>15.56044474506893</v>
       </c>
       <c r="F29" t="n">
-        <v>18.27558627954664</v>
+        <v>17.50820810249395</v>
       </c>
       <c r="G29" t="n">
-        <v>22.41706298490216</v>
+        <v>23.20229628506703</v>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>22.94483693880658</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>7.364825022121815</v>
+        <v>7.641851539998097</v>
       </c>
       <c r="K29" t="n">
-        <v>3.223348316766296</v>
+        <v>1.947763357425014</v>
       </c>
       <c r="L29" t="n">
-        <v>3.338168538108222</v>
+        <v>3.615195055984504</v>
       </c>
       <c r="M29" t="n">
-        <v>2.961873604825191</v>
+        <v>1.686288645483909</v>
       </c>
       <c r="N29" t="n">
-        <v>0.09888061057096684</v>
+        <v>0.08160520271927707</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1283474373003433</v>
+        <v>0.310725243025308</v>
       </c>
     </row>
     <row r="30">
@@ -1829,7 +1827,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C4-2</t>
+          <t>C4-1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1844,30 +1842,32 @@
         <v>15.05223796278034</v>
       </c>
       <c r="F30" t="n">
-        <v>15.99253070819952</v>
+        <v>18.27558627954664</v>
       </c>
       <c r="G30" t="n">
-        <v>21.86215889823868</v>
+        <v>22.41706298490216</v>
       </c>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>22.94483693880658</v>
+      </c>
       <c r="J30" t="n">
-        <v>6.809920935458338</v>
+        <v>7.364825022121815</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9402927454191747</v>
+        <v>3.223348316766296</v>
       </c>
       <c r="L30" t="n">
-        <v>2.783264451444746</v>
+        <v>3.338168538108222</v>
       </c>
       <c r="M30" t="n">
-        <v>0.6788180334780698</v>
+        <v>2.961873604825191</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1452626338102836</v>
+        <v>0.09888061057096684</v>
       </c>
       <c r="O30" t="n">
-        <v>0.6246768480875126</v>
+        <v>0.1283474373003433</v>
       </c>
     </row>
     <row r="31">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C4-3</t>
+          <t>C4-2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1888,33 +1888,33 @@
         <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>14.94715288078776</v>
+        <v>15.05223796278034</v>
       </c>
       <c r="F31" t="n">
-        <v>16.29025689271505</v>
+        <v>15.99253070819952</v>
       </c>
       <c r="G31" t="n">
-        <v>21.82432243122032</v>
+        <v>21.86215889823868</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>6.877169550432557</v>
+        <v>6.809920935458338</v>
       </c>
       <c r="K31" t="n">
-        <v>1.343104011927293</v>
+        <v>0.9402927454191747</v>
       </c>
       <c r="L31" t="n">
-        <v>2.850513066418964</v>
+        <v>2.783264451444746</v>
       </c>
       <c r="M31" t="n">
-        <v>1.081629299986188</v>
+        <v>0.6788180334780698</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1386468681790511</v>
+        <v>0.1452626338102836</v>
       </c>
       <c r="O31" t="n">
-        <v>0.4724949123136574</v>
+        <v>0.6246768480875126</v>
       </c>
     </row>
     <row r="32">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C4-4</t>
+          <t>C4-3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1935,33 +1935,33 @@
         <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>15.06859343199881</v>
+        <v>14.94715288078776</v>
       </c>
       <c r="F32" t="n">
-        <v>15.86185486552177</v>
+        <v>16.29025689271505</v>
       </c>
       <c r="G32" t="n">
-        <v>21.37369908569849</v>
+        <v>21.82432243122032</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>6.305105653699679</v>
+        <v>6.877169550432557</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7932614335229538</v>
+        <v>1.343104011927293</v>
       </c>
       <c r="L32" t="n">
-        <v>2.278449169686086</v>
+        <v>2.850513066418964</v>
       </c>
       <c r="M32" t="n">
-        <v>0.5317867215818488</v>
+        <v>1.081629299986188</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2061192038640794</v>
+        <v>0.1386468681790511</v>
       </c>
       <c r="O32" t="n">
-        <v>0.6916975629044284</v>
+        <v>0.4724949123136574</v>
       </c>
     </row>
     <row r="33">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C8-1</t>
+          <t>C4-4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1979,36 +1979,36 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>15.39367998346191</v>
+        <v>15.06859343199881</v>
       </c>
       <c r="F33" t="n">
-        <v>16.2333897794457</v>
+        <v>15.86185486552177</v>
       </c>
       <c r="G33" t="n">
-        <v>22.62785380720766</v>
+        <v>21.37369908569849</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>7.234173823745749</v>
+        <v>6.305105653699679</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8397097959837865</v>
+        <v>0.7932614335229538</v>
       </c>
       <c r="L33" t="n">
-        <v>3.207517339732156</v>
+        <v>2.278449169686086</v>
       </c>
       <c r="M33" t="n">
-        <v>0.5782350840426815</v>
+        <v>0.5317867215818488</v>
       </c>
       <c r="N33" t="n">
-        <v>0.1082532812660387</v>
+        <v>0.2061192038640794</v>
       </c>
       <c r="O33" t="n">
-        <v>0.6697826526839551</v>
+        <v>0.6916975629044284</v>
       </c>
     </row>
     <row r="34">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C8-2</t>
+          <t>C8-1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2029,33 +2029,33 @@
         <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>14.67505402188215</v>
+        <v>15.39367998346191</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67352602156995</v>
+        <v>16.2333897794457</v>
       </c>
       <c r="G34" t="n">
-        <v>20.40424040156918</v>
+        <v>22.62785380720766</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>5.729186379687025</v>
+        <v>7.234173823745749</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9984719996877942</v>
+        <v>0.8397097959837865</v>
       </c>
       <c r="L34" t="n">
-        <v>1.702529895673432</v>
+        <v>3.207517339732156</v>
       </c>
       <c r="M34" t="n">
-        <v>0.7369972877466893</v>
+        <v>0.5782350840426815</v>
       </c>
       <c r="N34" t="n">
-        <v>0.307246845643572</v>
+        <v>0.1082532812660387</v>
       </c>
       <c r="O34" t="n">
-        <v>0.5999868191552088</v>
+        <v>0.6697826526839551</v>
       </c>
     </row>
     <row r="35">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C8-3</t>
+          <t>C8-2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2076,33 +2076,33 @@
         <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>16.36814855754924</v>
+        <v>14.67505402188215</v>
       </c>
       <c r="F35" t="n">
-        <v>17.49905313462929</v>
+        <v>15.67352602156995</v>
       </c>
       <c r="G35" t="n">
-        <v>22.51672702316594</v>
+        <v>20.40424040156918</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>6.148578465616701</v>
+        <v>5.729186379687025</v>
       </c>
       <c r="K35" t="n">
-        <v>1.130904577080045</v>
+        <v>0.9984719996877942</v>
       </c>
       <c r="L35" t="n">
-        <v>2.121921981603109</v>
+        <v>1.702529895673432</v>
       </c>
       <c r="M35" t="n">
-        <v>0.8694298651389403</v>
+        <v>0.7369972877466893</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2297406445016712</v>
+        <v>0.307246845643572</v>
       </c>
       <c r="O35" t="n">
-        <v>0.5473631188865126</v>
+        <v>0.5999868191552088</v>
       </c>
     </row>
     <row r="36">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C8-4</t>
+          <t>C8-3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2123,33 +2123,33 @@
         <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>15.18541941092615</v>
+        <v>16.36814855754924</v>
       </c>
       <c r="F36" t="n">
-        <v>15.79908898994116</v>
+        <v>17.49905313462929</v>
       </c>
       <c r="G36" t="n">
-        <v>19.9432008801217</v>
+        <v>22.51672702316594</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>4.757781469195546</v>
+        <v>6.148578465616701</v>
       </c>
       <c r="K36" t="n">
-        <v>0.6136695790150082</v>
+        <v>1.130904577080045</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7311249851819532</v>
+        <v>2.121921981603109</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3521948670739032</v>
+        <v>0.8694298651389403</v>
       </c>
       <c r="N36" t="n">
-        <v>0.6024339644987606</v>
+        <v>0.2297406445016712</v>
       </c>
       <c r="O36" t="n">
-        <v>0.7833913659066708</v>
+        <v>0.5473631188865126</v>
       </c>
     </row>
     <row r="37">
@@ -2158,45 +2158,45 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>D1-1</t>
+          <t>C8-4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>16.32057159089599</v>
+        <v>15.18541941092615</v>
       </c>
       <c r="F37" t="n">
-        <v>18.87815493958332</v>
+        <v>15.79908898994116</v>
       </c>
       <c r="G37" t="n">
-        <v>22.90793313841943</v>
+        <v>19.9432008801217</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>6.587361547523432</v>
+        <v>4.757781469195546</v>
       </c>
       <c r="K37" t="n">
-        <v>2.557583348687324</v>
+        <v>0.6136695790150082</v>
       </c>
       <c r="L37" t="n">
-        <v>2.56070506350984</v>
+        <v>0.7311249851819532</v>
       </c>
       <c r="M37" t="n">
-        <v>2.296108636746219</v>
+        <v>0.3521948670739032</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1694926874436872</v>
+        <v>0.6024339644987606</v>
       </c>
       <c r="O37" t="n">
-        <v>0.2036115579845565</v>
+        <v>0.7833913659066708</v>
       </c>
     </row>
     <row r="38">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D1-2</t>
+          <t>D1-1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2217,33 +2217,33 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>15.42782463906701</v>
+        <v>16.32057159089599</v>
       </c>
       <c r="F38" t="n">
-        <v>17.40243744501315</v>
+        <v>18.87815493958332</v>
       </c>
       <c r="G38" t="n">
-        <v>21.5030384679923</v>
+        <v>22.90793313841943</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>6.075213828925285</v>
+        <v>6.587361547523432</v>
       </c>
       <c r="K38" t="n">
-        <v>1.974612805946137</v>
+        <v>2.557583348687324</v>
       </c>
       <c r="L38" t="n">
-        <v>2.048557344911693</v>
+        <v>2.56070506350984</v>
       </c>
       <c r="M38" t="n">
-        <v>1.713138094005032</v>
+        <v>2.296108636746219</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2417256804016271</v>
+        <v>0.1694926874436872</v>
       </c>
       <c r="O38" t="n">
-        <v>0.3049959321217437</v>
+        <v>0.2036115579845565</v>
       </c>
     </row>
     <row r="39">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D1-3</t>
+          <t>D1-2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2264,33 +2264,33 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>16.56728695214861</v>
+        <v>15.42782463906701</v>
       </c>
       <c r="F39" t="n">
-        <v>19.21993432004555</v>
+        <v>17.40243744501315</v>
       </c>
       <c r="G39" t="n">
-        <v>22.45273153234039</v>
+        <v>21.5030384679923</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>5.885444580191777</v>
+        <v>6.075213828925285</v>
       </c>
       <c r="K39" t="n">
-        <v>2.652647367896943</v>
+        <v>1.974612805946137</v>
       </c>
       <c r="L39" t="n">
-        <v>1.858788096178184</v>
+        <v>2.048557344911693</v>
       </c>
       <c r="M39" t="n">
-        <v>2.391172655955838</v>
+        <v>1.713138094005032</v>
       </c>
       <c r="N39" t="n">
-        <v>0.2757077839005844</v>
+        <v>0.2417256804016271</v>
       </c>
       <c r="O39" t="n">
-        <v>0.1906273917702258</v>
+        <v>0.3049959321217437</v>
       </c>
     </row>
     <row r="40">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>D1-4</t>
+          <t>D1-3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2311,33 +2311,33 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>15.69515054481164</v>
+        <v>16.56728695214861</v>
       </c>
       <c r="F40" t="n">
-        <v>17.79010980011102</v>
+        <v>19.21993432004555</v>
       </c>
       <c r="G40" t="n">
-        <v>21.82397436712101</v>
+        <v>22.45273153234039</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>6.128823822309371</v>
+        <v>5.885444580191777</v>
       </c>
       <c r="K40" t="n">
-        <v>2.094959255299379</v>
+        <v>2.652647367896943</v>
       </c>
       <c r="L40" t="n">
-        <v>2.102167338295779</v>
+        <v>1.858788096178184</v>
       </c>
       <c r="M40" t="n">
-        <v>1.833484543358274</v>
+        <v>2.391172655955838</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2329080907341323</v>
+        <v>0.2757077839005844</v>
       </c>
       <c r="O40" t="n">
-        <v>0.2805861020816092</v>
+        <v>0.1906273917702258</v>
       </c>
     </row>
     <row r="41">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>D4-1</t>
+          <t>D1-4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2355,36 +2355,36 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>16.11661115059995</v>
+        <v>15.69515054481164</v>
       </c>
       <c r="F41" t="n">
-        <v>17.28227381264924</v>
+        <v>17.79010980011102</v>
       </c>
       <c r="G41" t="n">
-        <v>22.03371578325258</v>
+        <v>21.82397436712101</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>5.917104632652631</v>
+        <v>6.128823822309371</v>
       </c>
       <c r="K41" t="n">
-        <v>1.165662662049289</v>
+        <v>2.094959255299379</v>
       </c>
       <c r="L41" t="n">
-        <v>1.890448148639038</v>
+        <v>2.102167338295779</v>
       </c>
       <c r="M41" t="n">
-        <v>0.9041879501081844</v>
+        <v>1.833484543358274</v>
       </c>
       <c r="N41" t="n">
-        <v>0.2697232611750618</v>
+        <v>0.2329080907341323</v>
       </c>
       <c r="O41" t="n">
-        <v>0.5343333796744245</v>
+        <v>0.2805861020816092</v>
       </c>
     </row>
     <row r="42">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>D4-2</t>
+          <t>D4-1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2405,33 +2405,33 @@
         <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>15.49955048445159</v>
+        <v>16.11661115059995</v>
       </c>
       <c r="F42" t="n">
-        <v>17.57344679037134</v>
+        <v>17.28227381264924</v>
       </c>
       <c r="G42" t="n">
-        <v>22.17489512136113</v>
+        <v>22.03371578325258</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>6.675344636909536</v>
+        <v>5.917104632652631</v>
       </c>
       <c r="K42" t="n">
-        <v>2.073896305919742</v>
+        <v>1.165662662049289</v>
       </c>
       <c r="L42" t="n">
-        <v>2.648688152895943</v>
+        <v>1.890448148639038</v>
       </c>
       <c r="M42" t="n">
-        <v>1.812421593978637</v>
+        <v>0.9041879501081844</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1594650145449798</v>
+        <v>0.2697232611750618</v>
       </c>
       <c r="O42" t="n">
-        <v>0.2847126315212334</v>
+        <v>0.5343333796744245</v>
       </c>
     </row>
     <row r="43">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>D4-3</t>
+          <t>D4-2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2452,33 +2452,33 @@
         <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>16.79619175196161</v>
+        <v>15.49955048445159</v>
       </c>
       <c r="F43" t="n">
-        <v>18.12277193380361</v>
+        <v>17.57344679037134</v>
       </c>
       <c r="G43" t="n">
-        <v>22.89502980203478</v>
+        <v>22.17489512136113</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>6.098838050073176</v>
+        <v>6.675344636909536</v>
       </c>
       <c r="K43" t="n">
-        <v>1.326580181842001</v>
+        <v>2.073896305919742</v>
       </c>
       <c r="L43" t="n">
-        <v>2.072181566059584</v>
+        <v>2.648688152895943</v>
       </c>
       <c r="M43" t="n">
-        <v>1.065105469900896</v>
+        <v>1.812421593978637</v>
       </c>
       <c r="N43" t="n">
-        <v>0.2377996396388577</v>
+        <v>0.1594650145449798</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4779377173263133</v>
+        <v>0.2847126315212334</v>
       </c>
     </row>
     <row r="44">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>D4-4</t>
+          <t>D4-3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2499,33 +2499,33 @@
         <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>15.92085778283265</v>
+        <v>16.79619175196161</v>
       </c>
       <c r="F44" t="n">
-        <v>17.52789940890871</v>
+        <v>18.12277193380361</v>
       </c>
       <c r="G44" t="n">
-        <v>21.93945416850551</v>
+        <v>22.89502980203478</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>6.018596385672861</v>
+        <v>6.098838050073176</v>
       </c>
       <c r="K44" t="n">
-        <v>1.607041626076057</v>
+        <v>1.326580181842001</v>
       </c>
       <c r="L44" t="n">
-        <v>1.991939901659268</v>
+        <v>2.072181566059584</v>
       </c>
       <c r="M44" t="n">
-        <v>1.345566914134952</v>
+        <v>1.065105469900896</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2514006174758661</v>
+        <v>0.2377996396388577</v>
       </c>
       <c r="O44" t="n">
-        <v>0.3934993303962936</v>
+        <v>0.4779377173263133</v>
       </c>
     </row>
     <row r="45">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>D8-1</t>
+          <t>D4-4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2543,36 +2543,36 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>17.04989766972598</v>
+        <v>15.92085778283265</v>
       </c>
       <c r="F45" t="n">
-        <v>20.12690396439272</v>
+        <v>17.52789940890871</v>
       </c>
       <c r="G45" t="n">
-        <v>23.10634204477208</v>
+        <v>21.93945416850551</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>6.056444375046105</v>
+        <v>6.018596385672861</v>
       </c>
       <c r="K45" t="n">
-        <v>3.077006294666745</v>
+        <v>1.607041626076057</v>
       </c>
       <c r="L45" t="n">
-        <v>2.029787891032512</v>
+        <v>1.991939901659268</v>
       </c>
       <c r="M45" t="n">
-        <v>2.81553158272564</v>
+        <v>1.345566914134952</v>
       </c>
       <c r="N45" t="n">
-        <v>0.2448910763053906</v>
+        <v>0.2514006174758661</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1420497716318224</v>
+        <v>0.3934993303962936</v>
       </c>
     </row>
     <row r="46">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>D8-2</t>
+          <t>D8-1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2593,33 +2593,33 @@
         <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>15.78896707660728</v>
+        <v>17.04989766972598</v>
       </c>
       <c r="F46" t="n">
-        <v>16.6704592559875</v>
+        <v>20.12690396439272</v>
       </c>
       <c r="G46" t="n">
-        <v>20.5236116726011</v>
+        <v>23.10634204477208</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>4.734644595993817</v>
+        <v>6.056444375046105</v>
       </c>
       <c r="K46" t="n">
-        <v>0.8814921793802135</v>
+        <v>3.077006294666745</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7079881119802245</v>
+        <v>2.029787891032512</v>
       </c>
       <c r="M46" t="n">
-        <v>0.6200174674391086</v>
+        <v>2.81553158272564</v>
       </c>
       <c r="N46" t="n">
-        <v>0.6121732405770495</v>
+        <v>0.2448910763053906</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6506630497663862</v>
+        <v>0.1420497716318224</v>
       </c>
     </row>
     <row r="47">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D8-3</t>
+          <t>D8-2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2640,33 +2640,33 @@
         <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>15.52524769953308</v>
+        <v>15.78896707660728</v>
       </c>
       <c r="F47" t="n">
-        <v>16.53158931257094</v>
+        <v>16.6704592559875</v>
       </c>
       <c r="G47" t="n">
-        <v>21.14467334099823</v>
+        <v>20.5236116726011</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>5.619425641465144</v>
+        <v>4.734644595993817</v>
       </c>
       <c r="K47" t="n">
-        <v>1.00634161303786</v>
+        <v>0.8814921793802135</v>
       </c>
       <c r="L47" t="n">
-        <v>1.592769157451551</v>
+        <v>0.7079881119802245</v>
       </c>
       <c r="M47" t="n">
-        <v>0.7448669010967546</v>
+        <v>0.6200174674391086</v>
       </c>
       <c r="N47" t="n">
-        <v>0.3315344839546602</v>
+        <v>0.6121732405770495</v>
       </c>
       <c r="O47" t="n">
-        <v>0.5967229209202749</v>
+        <v>0.6506630497663862</v>
       </c>
     </row>
     <row r="48">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>D8-4</t>
+          <t>D8-3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2687,32 +2687,79 @@
         <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>16.35794539742025</v>
+        <v>15.52524769953308</v>
       </c>
       <c r="F48" t="n">
-        <v>16.61942010936135</v>
+        <v>16.53158931257094</v>
       </c>
       <c r="G48" t="n">
-        <v>20.38460188143384</v>
+        <v>21.14467334099823</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
+        <v>5.619425641465144</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.00634161303786</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.592769157451551</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.7448669010967546</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.3315344839546602</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.5967229209202749</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>D8-4</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16.35794539742025</v>
+      </c>
+      <c r="F49" t="n">
+        <v>16.61942010936135</v>
+      </c>
+      <c r="G49" t="n">
+        <v>20.38460188143384</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>4.026656484013593</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K49" t="n">
         <v>0.2614747119411049</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>0</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O49" t="n">
         <v>1</v>
       </c>
     </row>
